--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  ……하지만 비더만, 그는…… 라이타니엔 사람이 아닐세.
+    <t xml:space="preserve">[name="세버린"]  ……하지만 비더만, 그는…… 라이타니아 사람이 아닐세.
 </t>
   </si>
   <si>
@@ -1792,7 +1792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  그가 이렇게 짧은 시간 내에 이 정도 수준의 기술을 습득할 수 있는 자였다면, 그는 진작에 라이타니엔의 중앙대학에 들어가서 지금쯤 그 높은 탑에 들어가 떵떵거리며 살아야 했을 걸세.
+    <t xml:space="preserve">[name="세버린"]  그가 이렇게 짧은 시간 내에 이 정도 수준의 기술을 습득할 수 있는 자였다면, 그는 진작에 라이타니아의 중앙대학에 들어가서 지금쯤 그 높은 탑에 들어가 떵떵거리며 살아야 했을 걸세.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  But that doesn’t mean they’re all so “benevolent.”
+    <t xml:space="preserve">[name="GreyThroat"]  But that doesn’t mean they’re all so 'benevolent.'
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  As long as it frees people from the fear of Catastrophes... No, they’re not even interested in helping people. It’s all about fighting some ancient, imaginary enemy they call “Catastrophes.”
+    <t xml:space="preserve">[name="Ayerscarpe"]  As long as it frees people from the fear of Catastrophes... No, they’re not even interested in helping people. It’s all about fighting some ancient, imaginary enemy they call 'Catastrophes.'
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  He would not hinge his entire plan on “feelings.” In their eyes, what we do is something akin to acting out a fable.
+    <t xml:space="preserve">[name="Ayerscarpe"]  He would not hinge his entire plan on 'feelings.' In their eyes, what we do is something akin to acting out a fable.
 </t>
   </si>
   <si>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  —That thing in your hand, is that a "Gramophone" core?
+    <t xml:space="preserve">[name="GreyThroat"]  —That thing in your hand, is that a 'Gramophone' core?
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  He’d only been here for half a year. Not to mention the L-44 “Gramophone” system is a rather new product.
+    <t xml:space="preserve">[name="Severin"]  He’d only been here for half a year. Not to mention the L-44 'Gramophone' system is a rather new product.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
@@ -1128,11 +1128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’m pretty sure I know what you’re going to say. But go ahead and say it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  It’s on me then.
+    <t xml:space="preserve">[name="Severin"]  I'm pretty sure I know what you're going to say. But go ahead and say it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  It's on me then.
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’ve seen your evidence. Biederman was a Contingency Contract Catastrophe Messenger.
+    <t xml:space="preserve">[name="GreyThroat"]  I've seen your evidence. Biederman was a Contingency Contract Catastrophe Messenger.
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  But that doesn’t mean they’re all so 'benevolent.'
+    <t xml:space="preserve">[name="GreyThroat"]  But that doesn't mean they're all so 'benevolent.'
 </t>
   </si>
   <si>
@@ -1176,11 +1176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  But there is a small group of Catastrophe Messengers with rather extreme beliefs that conflate Catastrophes with man-made disasters. If you’ll excuse the turn of phrase, they’re a bunch of sick utilitarians.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  As long as it frees people from the fear of Catastrophes... No, they’re not even interested in helping people. It’s all about fighting some ancient, imaginary enemy they call 'Catastrophes.'
+    <t xml:space="preserve">[name="Ayerscarpe"]  But there is a small group of Catastrophe Messengers with rather extreme beliefs that conflate Catastrophes with man-made disasters. If you'll excuse the turn of phrase, they're a bunch of sick utilitarians.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  As long as it frees people from the fear of Catastrophes... No, they're not even interested in helping people. It's all about fighting some ancient, imaginary enemy they call 'Catastrophes.'
 </t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  And now they’ve taken up root in this well-regulated contractual mechanism. They’re far more entrenched than I had previously thought.
+    <t xml:space="preserve">[name="Ayerscarpe"]  And now they've taken up root in this well-regulated contractual mechanism. They're far more entrenched than I had previously thought.
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  I don’t know by what means this madman used the Contingency Contract, but I do know one thing for certain.
+    <t xml:space="preserve">[name="Ayerscarpe"]  I don't know by what means this madman used the Contingency Contract, but I do know one thing for certain.
 </t>
   </si>
   <si>
@@ -1208,11 +1208,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  To bet everything on Rhodes Island’s bonds with its operators... is very strange.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  ...It’s all just speculation.
+    <t xml:space="preserve">[name="Ayerscarpe"]  To bet everything on Rhodes Island's bonds with its operators... is very strange.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  ...It's all just speculation.
 </t>
   </si>
   <si>
@@ -1236,15 +1236,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But Biederman... wasn’t Leithanien.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Even if he could somehow get his hands on this core… He... would not have been able to master the Originium Arts that caused it to overload and incinerate those people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  He’d only been here for half a year. Not to mention the L-44 'Gramophone' system is a rather new product.
+    <t xml:space="preserve">[name="Severin"]  But Biederman... wasn't Leithanien.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Even if he could somehow get his hands on this core... He... would not have been able to master the Originium Arts that caused it to overload and incinerate those people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  He'd only been here for half a year. Not to mention the L-44 'Gramophone' system is a rather new product.
 </t>
   </si>
   <si>
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Yes. Even now, we’re still not sure who the real killer is.
+    <t xml:space="preserve">[name="Severin"]  Yes. Even now, we're still not sure who the real killer is.
 </t>
   </si>
   <si>
@@ -1268,19 +1268,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Let’s not be too quick to lose hope. These are all pretty shallow inferences. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Do Folinic and Suzuran know about this? So much has happened, but they’re the ones who would be affected the most by this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  ...Honestly, I don’t know how to break the news to them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Miss Folinic has been struggling to accept the emptiness of her vengeance. That may be selfish, but it’s what’s best for everyone.
+    <t xml:space="preserve">[name="GreyThroat"]  Let's not be too quick to lose hope. These are all pretty shallow inferences. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Do Folinic and Suzuran know about this? So much has happened, but they're the ones who would be affected the most by this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  ...Honestly, I don't know how to break the news to them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Miss Folinic has been struggling to accept the emptiness of her vengeance. That may be selfish, but it's what's best for everyone.
 </t>
   </si>
   <si>
@@ -1288,11 +1288,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Most of the rebels have been arrested. Others left with Mudrock. But there are still some out there protesting. After all that, no one’s in much of a mood for trouble.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  But the jail isn’t in good shape. Not to mention, the riots also damaged a lot of supplies. Rations are getting even tighter.
+    <t xml:space="preserve">[name="Severin"]  Most of the rebels have been arrested. Others left with Mudrock. But there are still some out there protesting. After all that, no one's in much of a mood for trouble.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  But the jail isn't in good shape. Not to mention, the riots also damaged a lot of supplies. Rations are getting even tighter.
 </t>
   </si>
   <si>
@@ -1308,11 +1308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I see... That’s my fault... *cough* *cough*——*hack* *cough*!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  If we continue down this road, it’s only going to cause more conflict.
+    <t xml:space="preserve">[name="Severin"]  I see... That's my fault... *cough* *cough*——*hack* *cough*!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  If we continue down this road, it's only going to cause more conflict.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I had given up on pursuing any truth when they told me I couldn’t have a funeral for my son.
+    <t xml:space="preserve">[name="Severin"]  I had given up on pursuing any truth when they told me I couldn't have a funeral for my son.
 </t>
   </si>
   <si>
@@ -1352,19 +1352,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  If that’s what you really want, you should go to Rhodes Island for an examination.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You’re trembling.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  It’s no secret that I still have some... fear... of the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Fear...? Hah. You fought that hard for all of us and it turns out you’re afraid of the Infected?
+    <t xml:space="preserve">[name="GreyThroat"]  If that's what you really want, you should go to Rhodes Island for an examination.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You're trembling.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  It's no secret that I still have some... fear... of the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Fear...? Hah. You fought that hard for all of us and it turns out you're afraid of the Infected?
 </t>
   </si>
   <si>
@@ -1380,11 +1380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  If I had known you were so hostile to the Infected, Miss GreyThroat, I probably wouldn’t have hidden it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’m the one who should be sorry. I’ve... gotten used to my fear.
+    <t xml:space="preserve">[name="Severin"]  If I had known you were so hostile to the Infected, Miss GreyThroat, I probably wouldn't have hidden it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I'm the one who should be sorry. I've... gotten used to my fear.
 </t>
   </si>
   <si>
@@ -1400,7 +1400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Yes... Yes, he was. I couldn’t finish him off. I thought he was planning to fight to the death, but his and my revenge both came to an end.
+    <t xml:space="preserve">[name="Severin"]  Yes... Yes, he was. I couldn't finish him off. I thought he was planning to fight to the death, but his and my revenge both came to an end.
 </t>
   </si>
   <si>
@@ -1428,7 +1428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  And that’s where it ended.
+    <t xml:space="preserve">[name="Severin"]  And that's where it ended.
 </t>
   </si>
   <si>
@@ -1436,11 +1436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Oh... it’s you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’m so glad... you’re alright...
+    <t xml:space="preserve">[name="Tatjana"]  Oh... it's you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I'm so glad... you're alright...
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Hehe... maybe I really do push myself too hard, if I’m always falling down at times like this.
+    <t xml:space="preserve">[name="Tatjana"]  Hehe... maybe I really do push myself too hard, if I'm always falling down at times like this.
 </t>
   </si>
   <si>
@@ -1460,15 +1460,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’ve been... forcing myself not to think about Thor. But his smile... his pain... the fire burning his body...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’m sorry. I’m doing it again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s okay.
+    <t xml:space="preserve">[name="Tatjana"]  I've been... forcing myself not to think about Thor. But his smile... his pain... the fire burning his body...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I'm sorry. I'm doing it again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  It's okay.
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re right.
+    <t xml:space="preserve">[name="Folinic"]  You're right.
 </t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  I’m sorry. I actually knew about Mr. Severin’s condition. He asked me not to tell anyone.
+    <t xml:space="preserve">[name="Suzuran"]  I'm sorry. I actually knew about Mr. Severin's condition. He asked me not to tell anyone.
 </t>
   </si>
   <si>
@@ -1516,15 +1516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  But... He’s in a lot of pain too. Everyone is.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Those who couldn't bear it… have already been thrown in jail.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  The rest… are just like me.
+    <t xml:space="preserve">[name="Suzuran"]  But... He's in a lot of pain too. Everyone is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Those who couldn't bear it... have already been thrown in jail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  The rest... are just like me.
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Just don’t use it to make money.
+    <t xml:space="preserve">[name="Ayerscarpe"]  Just don't use it to make money.
 </t>
   </si>
   <si>
@@ -1552,11 +1552,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Hard to say... That’s a lot of people, with even more wounded and prisoners. You can’t leave the prisoners to die.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Right. Where’s GreyThroat?
+    <t xml:space="preserve">[name="Ayerscarpe"]  Hard to say... That's a lot of people, with even more wounded and prisoners. You can't leave the prisoners to die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Right. Where's GreyThroat?
 </t>
   </si>
   <si>
@@ -1564,15 +1564,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  She’ll join us later.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Oh? I’ll go get her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  There’s no need for—
+    <t xml:space="preserve">[name="Ayerscarpe"]  She'll join us later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Oh? I'll go get her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  There's no need for—
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m going to get her.
+    <t xml:space="preserve">[name="Folinic"]  I'm going to get her.
 </t>
   </si>
   <si>
@@ -1588,19 +1588,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  But after all he’s done for us, we shouldn’t be so fickle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  E-even so, we can’t let an Infected wander the streets in broad daylight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  We should decide after we see the results of Schultz Severin’s medical examination. He might...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  No matter what the examination says, we can’t have an Infected leading us! What will the nobles say?
+    <t xml:space="preserve">[name="Townsfolk"]  But after all he's done for us, we shouldn't be so fickle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  E-even so, we can't let an Infected wander the streets in broad daylight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  We should decide after we see the results of Schultz Severin's medical examination. He might...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  No matter what the examination says, we can't have an Infected leading us! What will the nobles say?
 </t>
   </si>
   <si>
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Outpost reports a convoy approaching! They’re flying a Gendarmerie flag!
+    <t xml:space="preserve">[name="Townsfolk"]  Outpost reports a convoy approaching! They're flying a Gendarmerie flag!
 </t>
   </si>
   <si>
@@ -1620,11 +1620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  L-let’s go see if the receiver still works. We have to confirm their IFF——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the midst of the crowd’s debate, the former Schultz, Severin Hawthorn himself, has long since fallen asleep from exhaustion.
+    <t xml:space="preserve">[name="Townsfolk"]  L-let's go see if the receiver still works. We have to confirm their IFF——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the midst of the crowd's debate, the former Schultz, Severin Hawthorn himself, has long since fallen asleep from exhaustion.
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It is the first time he’s cried since losing his son.
+    <t xml:space="preserve">It is the first time he's cried since losing his son.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st02.xlsx
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  ……하지만 비더만, 그는…… 라이타니아 사람이 아닐세.
+    <t xml:space="preserve">[name="세버린"]  ……하지만 비더만, 그는…… 라이타니엔 사람이 아닐세.
 </t>
   </si>
   <si>
@@ -1792,7 +1792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  그가 이렇게 짧은 시간 내에 이 정도 수준의 기술을 습득할 수 있는 자였다면, 그는 진작에 라이타니아의 중앙대학에 들어가서 지금쯤 그 높은 탑에 들어가 떵떵거리며 살아야 했을 걸세.
+    <t xml:space="preserve">[name="세버린"]  그가 이렇게 짧은 시간 내에 이 정도 수준의 기술을 습득할 수 있는 자였다면, 그는 진작에 라이타니엔의 중앙대학에 들어가서 지금쯤 그 높은 탑에 들어가 떵떵거리며 살아야 했을 걸세.
 </t>
   </si>
   <si>
